--- a/GitTest/Excel/loginHS.xlsx
+++ b/GitTest/Excel/loginHS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\git\TestProject\GitTest\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,7 +56,7 @@
     <t>C:\\Users\\Mario\\Desktop\\Nueva carpeta\\ResultadoLogin_</t>
   </si>
   <si>
-    <t>KNR</t>
+    <t>KNT</t>
   </si>
 </sst>
 </file>
